--- a/Data/TestData/PolicyData.xlsx
+++ b/Data/TestData/PolicyData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GI Web App Automation\Data\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6269BA5A-7F4C-4A48-ACBC-8BDB07F3FE4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBB6545D-4E50-44A8-98D2-D10F870530E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2316" yWindow="1524" windowWidth="17280" windowHeight="8976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NewPolicy" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="64">
   <si>
     <t>testId</t>
   </si>
@@ -182,6 +182,36 @@
   </si>
   <si>
     <t>admin@eta.com</t>
+  </si>
+  <si>
+    <t>A0003 - ASSOCIATION OF PROCESS INDUSTRY</t>
+  </si>
+  <si>
+    <t>A0001 - Andy Tay</t>
+  </si>
+  <si>
+    <t>EQ - EQ INSURANCE Co Ltd</t>
+  </si>
+  <si>
+    <t>BUR-BURGLARY</t>
+  </si>
+  <si>
+    <t>duplicateCheck</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>newpol_002</t>
+  </si>
+  <si>
+    <t>GL202111251119</t>
+  </si>
+  <si>
+    <t>AIG - AIG ASIA PACIFIC INSURANCE PTE LTD</t>
+  </si>
+  <si>
+    <t>ATAN - ANDREW TAN</t>
   </si>
 </sst>
 </file>
@@ -582,58 +612,53 @@
   <dimension ref="A1:DY27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="AY3" sqref="AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.21875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="36.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="12" width="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.21875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="10.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="15.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="20.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="7.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.88671875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="40.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="25" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="10.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="15.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="21.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="16.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="9.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="7.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="16.5546875" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="9" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="36" max="37" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="8" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="12" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="15" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="36" max="37" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="13" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="10" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="43" max="49" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="50" max="50" width="16" bestFit="1" customWidth="1"/>
     <col min="51" max="51" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="52" max="52" width="11.6640625" bestFit="1" customWidth="1"/>
@@ -945,10 +970,97 @@
       <c r="F2" t="s">
         <v>9</v>
       </c>
+      <c r="H2" t="s">
+        <v>61</v>
+      </c>
+      <c r="M2" t="s">
+        <v>55</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O2" t="s">
+        <v>54</v>
+      </c>
+      <c r="P2" t="s">
+        <v>62</v>
+      </c>
       <c r="V2" s="1"/>
+      <c r="X2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC2">
+        <v>500</v>
+      </c>
+      <c r="AE2">
+        <v>5</v>
+      </c>
+      <c r="AJ2">
+        <v>10</v>
+      </c>
+      <c r="AN2">
+        <v>5</v>
+      </c>
+      <c r="AO2">
+        <v>5</v>
+      </c>
     </row>
     <row r="3" spans="1:129">
+      <c r="A3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="s">
+        <v>54</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>55</v>
+      </c>
+      <c r="P3" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>63</v>
+      </c>
       <c r="V3" s="1"/>
+      <c r="X3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC3">
+        <v>500</v>
+      </c>
+      <c r="AE3">
+        <v>5</v>
+      </c>
+      <c r="AJ3">
+        <v>10</v>
+      </c>
+      <c r="AN3">
+        <v>5</v>
+      </c>
+      <c r="AO3">
+        <v>5</v>
+      </c>
     </row>
     <row r="4" spans="1:129">
       <c r="V4" s="1"/>
@@ -1030,8 +1142,9 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{7F7AD8BC-8FE2-47EC-B4F3-36271F7AC4FF}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{0187E9E5-458B-4425-9417-EA085A87667B}"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/Data/TestData/PolicyData.xlsx
+++ b/Data/TestData/PolicyData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GI Web App Automation\Data\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBB6545D-4E50-44A8-98D2-D10F870530E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D1B1B4-9BDA-442B-B774-169BC9806935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2316" yWindow="1524" windowWidth="17280" windowHeight="8976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NewPolicy" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="64">
   <si>
     <t>testId</t>
   </si>
@@ -205,13 +205,13 @@
     <t>newpol_002</t>
   </si>
   <si>
-    <t>GL202111251119</t>
-  </si>
-  <si>
     <t>AIG - AIG ASIA PACIFIC INSURANCE PTE LTD</t>
   </si>
   <si>
-    <t>ATAN - ANDREW TAN</t>
+    <t>GL2021112300928</t>
+  </si>
+  <si>
+    <t>GL202112301200</t>
   </si>
 </sst>
 </file>
@@ -612,7 +612,7 @@
   <dimension ref="A1:DY27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AY3" sqref="AY3"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -632,7 +632,7 @@
     <col min="13" max="13" width="19.6640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="18.88671875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="15" max="15" width="40.109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="37.109375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="25" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="18" max="18" width="10.6640625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="19" max="19" width="15.5546875" bestFit="1" customWidth="1" collapsed="1"/>
@@ -971,7 +971,7 @@
         <v>9</v>
       </c>
       <c r="H2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M2" t="s">
         <v>55</v>
@@ -983,7 +983,7 @@
         <v>54</v>
       </c>
       <c r="P2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V2" s="1"/>
       <c r="X2" t="s">
@@ -1025,7 +1025,7 @@
         <v>9</v>
       </c>
       <c r="H3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M3" t="s">
         <v>54</v>
@@ -1038,9 +1038,6 @@
       </c>
       <c r="P3" t="s">
         <v>56</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>63</v>
       </c>
       <c r="V3" s="1"/>
       <c r="X3" t="s">
